--- a/data/nc/conditional_sampling_ncdmf/datasheets/cond_c3.xlsx
+++ b/data/nc/conditional_sampling_ncdmf/datasheets/cond_c3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahaines\Desktop\Method Comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/megancarr/Documents/400_data_analytics/shellbase_bal/data/nc/conditional_sampling_ncdmf/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADCC16A-F41C-8241-A4FF-529634A9E6E8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="690" yWindow="1110" windowWidth="20940" windowHeight="13935"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="700" yWindow="1120" windowWidth="20940" windowHeight="13940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COND. FC" sheetId="1" r:id="rId1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>3.5"rain</t>
   </si>
@@ -71,9 +72,6 @@
     <t>Rifle Range Closed Area</t>
   </si>
   <si>
-    <t>STATION NO</t>
-  </si>
-  <si>
     <t>Grays Pt. Shrimp Line</t>
   </si>
   <si>
@@ -97,11 +95,17 @@
   <si>
     <t>ON20</t>
   </si>
+  <si>
+    <t>STATION</t>
+  </si>
+  <si>
+    <t>NO.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -240,6 +244,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -275,6 +296,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,30 +488,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr transitionEvaluation="1"/>
   <dimension ref="A1:EC26"/>
   <sheetViews>
     <sheetView tabSelected="1" defaultGridColor="0" colorId="22" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" topLeftCell="DV1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="EC6" sqref="EC6"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.77734375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.7109375" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.77734375" style="3"/>
-    <col min="2" max="2" width="12.5546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="125" width="8.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="126" max="16384" width="7.77734375" style="3"/>
+    <col min="1" max="1" width="7.7109375" style="3"/>
+    <col min="2" max="2" width="12.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="125" width="8.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="126" max="16384" width="7.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:133" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D1" s="1">
         <v>35263</v>
@@ -866,9 +907,9 @@
         <v>44195</v>
       </c>
     </row>
-    <row r="2" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>3</v>
@@ -1035,15 +1076,15 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="3" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3">
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="3">
         <v>240</v>
@@ -1348,9 +1389,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3">
         <v>16</v>
@@ -1654,9 +1695,9 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="5" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3">
         <v>26</v>
@@ -1836,12 +1877,12 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="3">
         <v>15</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3">
         <v>240</v>
@@ -2154,7 +2195,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="7" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
@@ -2291,7 +2332,7 @@
       <c r="BS7" s="3"/>
       <c r="BT7" s="3"/>
     </row>
-    <row r="8" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B8" s="3">
         <v>29</v>
       </c>
@@ -2359,7 +2400,7 @@
       <c r="BS8" s="3"/>
       <c r="BT8" s="3"/>
     </row>
-    <row r="9" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
@@ -2424,7 +2465,7 @@
       <c r="BS9" s="3"/>
       <c r="BT9" s="3"/>
     </row>
-    <row r="10" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
         <v>27</v>
       </c>
@@ -2501,7 +2542,7 @@
       <c r="BS10" s="3"/>
       <c r="BT10" s="3"/>
     </row>
-    <row r="11" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
         <v>31</v>
       </c>
@@ -2584,7 +2625,7 @@
       <c r="BS11" s="3"/>
       <c r="BT11" s="3"/>
     </row>
-    <row r="12" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>34</v>
       </c>
@@ -2671,7 +2712,7 @@
       <c r="BS12" s="3"/>
       <c r="BT12" s="3"/>
     </row>
-    <row r="13" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>2</v>
       </c>
@@ -2754,7 +2795,7 @@
       <c r="BS13" s="3"/>
       <c r="BT13" s="3"/>
     </row>
-    <row r="14" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>13</v>
       </c>
@@ -2834,7 +2875,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
         <v>5</v>
       </c>
@@ -2911,7 +2952,7 @@
       <c r="BS15" s="3"/>
       <c r="BT15" s="3"/>
     </row>
-    <row r="16" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:133" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
         <v>8</v>
       </c>
@@ -2988,7 +3029,7 @@
       <c r="BS16" s="3"/>
       <c r="BT16" s="3"/>
     </row>
-    <row r="17" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>12</v>
       </c>
@@ -3065,7 +3106,7 @@
       <c r="BS17" s="3"/>
       <c r="BT17" s="3"/>
     </row>
-    <row r="18" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>14</v>
       </c>
@@ -3142,7 +3183,7 @@
       <c r="BS18" s="3"/>
       <c r="BT18" s="3"/>
     </row>
-    <row r="19" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>20</v>
       </c>
@@ -3219,7 +3260,7 @@
       <c r="BS19" s="3"/>
       <c r="BT19" s="3"/>
     </row>
-    <row r="20" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>23</v>
       </c>
@@ -3298,7 +3339,7 @@
       <c r="BS20" s="3"/>
       <c r="BT20" s="3"/>
     </row>
-    <row r="21" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>30</v>
       </c>
@@ -3385,7 +3426,7 @@
       <c r="BS21" s="3"/>
       <c r="BT21" s="3"/>
     </row>
-    <row r="22" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>30</v>
       </c>
@@ -3465,7 +3506,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
@@ -3560,7 +3601,7 @@
       <c r="BS23" s="3"/>
       <c r="BT23" s="3"/>
     </row>
-    <row r="24" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>10</v>
       </c>
@@ -3649,7 +3690,7 @@
       <c r="BS24" s="3"/>
       <c r="BT24" s="3"/>
     </row>
-    <row r="25" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:123" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B25" s="3" t="s">
         <v>11</v>
       </c>
@@ -3728,9 +3769,9 @@
       <c r="BS25" s="3"/>
       <c r="BT25" s="3"/>
     </row>
-    <row r="26" spans="2:123" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:123" x14ac:dyDescent="0.15">
       <c r="B26" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="CH26" s="3">
         <v>1.8</v>
@@ -3740,7 +3781,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:DU27">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:DU27">
     <sortCondition ref="A2:A27"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
